--- a/StringsTranslation.xlsx
+++ b/StringsTranslation.xlsx
@@ -143,7 +143,7 @@
 &lt;color=#008516FF&gt;时间宝石：&lt;/color&gt;可以使时间倒退
 &lt;color=#D43D3DFF&gt;现实宝石：&lt;/color&gt;可以隐身
 &lt;color=#3482BAFF&gt;空间宝石：&lt;/color&gt;可以创建管道
-&lt;color=#A6A02EFF&gt;现实宝石：&lt;/color&gt;可以随机转换成其他船员
+&lt;color=#A6A02EFF&gt;精神宝石：&lt;/color&gt;可以随机转换成其他船员
 &lt;color=#822FA8FF&gt;力量宝石：&lt;/color&gt;可以进行范围伤害
 &lt;/color&gt;
 </t>
@@ -1629,8 +1629,8 @@
   <sheetPr/>
   <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="14.25"/>
